--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>901.0264386666668</v>
+        <v>105.384211</v>
       </c>
       <c r="H2">
-        <v>2703.079316</v>
+        <v>316.152633</v>
       </c>
       <c r="I2">
-        <v>0.4919546865560985</v>
+        <v>0.1017338963855636</v>
       </c>
       <c r="J2">
-        <v>0.4919546865560985</v>
+        <v>0.1017338963855636</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N2">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O2">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P2">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q2">
-        <v>268342.1763348418</v>
+        <v>858.0778704253361</v>
       </c>
       <c r="R2">
-        <v>2415079.587013576</v>
+        <v>7722.700833828026</v>
       </c>
       <c r="S2">
-        <v>0.4354859833548563</v>
+        <v>0.01771506512626762</v>
       </c>
       <c r="T2">
-        <v>0.4354859833548563</v>
+        <v>0.01771506512626762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>901.0264386666668</v>
+        <v>105.384211</v>
       </c>
       <c r="H3">
-        <v>2703.079316</v>
+        <v>316.152633</v>
       </c>
       <c r="I3">
-        <v>0.4919546865560985</v>
+        <v>0.1017338963855636</v>
       </c>
       <c r="J3">
-        <v>0.4919546865560985</v>
+        <v>0.1017338963855636</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P3">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q3">
-        <v>21931.29377058372</v>
+        <v>2565.087983036655</v>
       </c>
       <c r="R3">
-        <v>197381.6439352535</v>
+        <v>23085.79184732989</v>
       </c>
       <c r="S3">
-        <v>0.03559176259347793</v>
+        <v>0.05295638337762577</v>
       </c>
       <c r="T3">
-        <v>0.03559176259347794</v>
+        <v>0.05295638337762578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>901.0264386666668</v>
+        <v>105.384211</v>
       </c>
       <c r="H4">
-        <v>2703.079316</v>
+        <v>316.152633</v>
       </c>
       <c r="I4">
-        <v>0.4919546865560985</v>
+        <v>0.1017338963855636</v>
       </c>
       <c r="J4">
-        <v>0.4919546865560985</v>
+        <v>0.1017338963855636</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q4">
-        <v>12864.16530503065</v>
+        <v>1504.595040352374</v>
       </c>
       <c r="R4">
-        <v>115777.4877452758</v>
+        <v>13541.35536317137</v>
       </c>
       <c r="S4">
-        <v>0.02087694060776426</v>
+        <v>0.03106244788167022</v>
       </c>
       <c r="T4">
-        <v>0.02087694060776426</v>
+        <v>0.03106244788167022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1839.804749</v>
       </c>
       <c r="I5">
-        <v>0.3348405513893978</v>
+        <v>0.5920257690987943</v>
       </c>
       <c r="J5">
-        <v>0.3348405513893978</v>
+        <v>0.5920257690987943</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N5">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O5">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P5">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q5">
-        <v>182642.5171675715</v>
+        <v>4993.460677647875</v>
       </c>
       <c r="R5">
-        <v>1643782.654508143</v>
+        <v>44941.14609883088</v>
       </c>
       <c r="S5">
-        <v>0.2964060934345145</v>
+        <v>0.1030902720590388</v>
       </c>
       <c r="T5">
-        <v>0.2964060934345145</v>
+        <v>0.1030902720590388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1839.804749</v>
       </c>
       <c r="I6">
-        <v>0.3348405513893978</v>
+        <v>0.5920257690987943</v>
       </c>
       <c r="J6">
-        <v>0.3348405513893978</v>
+        <v>0.5920257690987943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P6">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q6">
         <v>14927.1603655873</v>
@@ -818,10 +818,10 @@
         <v>134344.4432902857</v>
       </c>
       <c r="S6">
-        <v>0.02422492505386818</v>
+        <v>0.3081720519089289</v>
       </c>
       <c r="T6">
-        <v>0.02422492505386818</v>
+        <v>0.3081720519089289</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1839.804749</v>
       </c>
       <c r="I7">
-        <v>0.3348405513893978</v>
+        <v>0.5920257690987943</v>
       </c>
       <c r="J7">
-        <v>0.3348405513893978</v>
+        <v>0.5920257690987943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q7">
         <v>8755.774305261422</v>
@@ -880,10 +880,10 @@
         <v>78801.96874735279</v>
       </c>
       <c r="S7">
-        <v>0.01420953290101519</v>
+        <v>0.1807634451308266</v>
       </c>
       <c r="T7">
-        <v>0.01420953290101519</v>
+        <v>0.1807634451308266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>317.228546</v>
       </c>
       <c r="H8">
-        <v>951.6856379999999</v>
+        <v>951.685638</v>
       </c>
       <c r="I8">
-        <v>0.1732047620545037</v>
+        <v>0.306240334515642</v>
       </c>
       <c r="J8">
-        <v>0.1732047620545037</v>
+        <v>0.306240334515642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N8">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O8">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P8">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q8">
-        <v>94476.47125110569</v>
+        <v>2582.994099465296</v>
       </c>
       <c r="R8">
-        <v>850288.241259951</v>
+        <v>23246.94689518767</v>
       </c>
       <c r="S8">
-        <v>0.1533235645198965</v>
+        <v>0.05332605614233031</v>
       </c>
       <c r="T8">
-        <v>0.1533235645198965</v>
+        <v>0.05332605614233032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>317.228546</v>
       </c>
       <c r="H9">
-        <v>951.6856379999999</v>
+        <v>951.685638</v>
       </c>
       <c r="I9">
-        <v>0.1732047620545037</v>
+        <v>0.306240334515642</v>
       </c>
       <c r="J9">
-        <v>0.1732047620545037</v>
+        <v>0.306240334515642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P9">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q9">
         <v>7721.452042002673</v>
       </c>
       <c r="R9">
-        <v>69493.06837802405</v>
+        <v>69493.06837802407</v>
       </c>
       <c r="S9">
-        <v>0.01253095648759667</v>
+        <v>0.1594098047600583</v>
       </c>
       <c r="T9">
-        <v>0.01253095648759667</v>
+        <v>0.1594098047600584</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>317.228546</v>
       </c>
       <c r="H10">
-        <v>951.6856379999999</v>
+        <v>951.685638</v>
       </c>
       <c r="I10">
-        <v>0.1732047620545037</v>
+        <v>0.306240334515642</v>
       </c>
       <c r="J10">
-        <v>0.1732047620545037</v>
+        <v>0.306240334515642</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q10">
         <v>4529.146182721764</v>
       </c>
       <c r="R10">
-        <v>40762.31564449587</v>
+        <v>40762.31564449588</v>
       </c>
       <c r="S10">
-        <v>0.007350241047010488</v>
+        <v>0.09350447361325333</v>
       </c>
       <c r="T10">
-        <v>0.007350241047010489</v>
+        <v>0.09350447361325334</v>
       </c>
     </row>
   </sheetData>
